--- a/biology/Zoologie/Cercopithecus_nictitans/Cercopithecus_nictitans.xlsx
+++ b/biology/Zoologie/Cercopithecus_nictitans/Cercopithecus_nictitans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hocheur, Cercopithèque hocheur
 Le hocheur ou cercopithèque hocheur (Cercopithecus nictitans) est une espèce de mammifères primates de la famille des Cercopithécidés, qui fait partie des singes africains de cette famille couramment appelés « pains à cacheter » ou « blancs-nez » en raison d'une tache blanche très claire et caractéristique sur leur nez.
@@ -512,11 +524,13 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Nom scientifique valide : Cercopithecus nictitans (Linnaeus, 1766)[1]
-Noms vulgaires (vulgarisation scientifique) recommandés ou typiques en français : Hocheur[2],[3],[4] ou Cercopithèque hocheur[3],[4].
-Autres noms vulgaires ou noms vernaculaires (langage courant) pouvant désigner éventuellement d'autres espèces : Hocheur blanc-nez[5],[4], même si ce nom semble plutôt désigner l'espèce Cercopithecus petaurista, blanc-nez[6] ou pain à cacheter[6],[4].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nom scientifique valide : Cercopithecus nictitans (Linnaeus, 1766)
+Noms vulgaires (vulgarisation scientifique) recommandés ou typiques en français : Hocheur ou Cercopithèque hocheur,.
+Autres noms vulgaires ou noms vernaculaires (langage courant) pouvant désigner éventuellement d'autres espèces : Hocheur blanc-nez même si ce nom semble plutôt désigner l'espèce Cercopithecus petaurista, blanc-nez ou pain à cacheter,.</t>
         </is>
       </c>
     </row>
@@ -544,16 +558,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Planche zoologique de 1849
 			Un adulte de la sous-espèce Cercopithecus nictitans martini
 			Un jeune individu vu de face
-Liste des sous-espèces
-Selon Mammal Species of the World (version 3, 2005)  (16 juillet 2014)[7] :
-sous-espèce Cercopithecus nictitans nictitans
-sous-espèce Cercopithecus nictitans martini</t>
+</t>
         </is>
       </c>
     </row>
@@ -578,13 +591,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette espèce est présente au Liberia, en Côte d'Ivoire, au Nigeria, au Cameroun, en Guinée équatoriale, en République centrafricaine, au Gabon, en République du Congo et en République démocratique du Congo. Elle vit dans la forêt tropicale humide de plaine et de montagne[8].
-</t>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (16 juillet 2014) :
+sous-espèce Cercopithecus nictitans nictitans
+sous-espèce Cercopithecus nictitans martini</t>
         </is>
       </c>
     </row>
@@ -609,12 +629,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Comportement</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est sociale et vit en groupe de 12 à 30 individus[9].
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente au Liberia, en Côte d'Ivoire, au Nigeria, au Cameroun, en Guinée équatoriale, en République centrafricaine, au Gabon, en République du Congo et en République démocratique du Congo. Elle vit dans la forêt tropicale humide de plaine et de montagne.
 </t>
         </is>
       </c>
@@ -640,12 +662,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Alimentation</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est frugivore et granivore. Il complète son alimentation avec des feuilles et des insectes[9].
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est sociale et vit en groupe de 12 à 30 individus.
 </t>
         </is>
       </c>
@@ -671,12 +695,47 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est frugivore et granivore. Il complète son alimentation avec des feuilles et des insectes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cercopithecus_nictitans</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cercopithecus_nictitans</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cercopithecus nictitans est polygame, un mâle vit avec plusieurs femelles et leurs petits. La femelle atteint sa maturité sexuelle à 4 ans environ. La gestation dure 172 jours en moyenne[9].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cercopithecus nictitans est polygame, un mâle vit avec plusieurs femelles et leurs petits. La femelle atteint sa maturité sexuelle à 4 ans environ. La gestation dure 172 jours en moyenne.
 </t>
         </is>
       </c>
